--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.03042119541955</v>
+        <v>89.52090149409494</v>
       </c>
       <c r="D2" t="n">
-        <v>4.270310450029972</v>
+        <v>3.239596703758636</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.34237467892771</v>
+        <v>88.46375748739086</v>
       </c>
       <c r="D3" t="n">
-        <v>3.661273954776275</v>
+        <v>3.948914922031587</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.58739484173466</v>
+        <v>87.46403768829354</v>
       </c>
       <c r="D4" t="n">
-        <v>3.519805050566693</v>
+        <v>3.963675385231775</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.70476682639848</v>
+        <v>86.89146269877087</v>
       </c>
       <c r="D5" t="n">
-        <v>4.356302380395043</v>
+        <v>3.706348883100044</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.88349664649635</v>
+        <v>85.27153923235306</v>
       </c>
       <c r="D6" t="n">
-        <v>3.981281747783378</v>
+        <v>4.176558211267991</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.56234173989341</v>
+        <v>85.16231611161913</v>
       </c>
       <c r="D7" t="n">
-        <v>3.866243415568645</v>
+        <v>3.325336072576881</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.73733483223994</v>
+        <v>83.67372611957728</v>
       </c>
       <c r="D8" t="n">
-        <v>4.251037005064924</v>
+        <v>3.115675569897962</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.1576706398609</v>
+        <v>83.44456554311158</v>
       </c>
       <c r="D9" t="n">
-        <v>4.078476005961203</v>
+        <v>3.64489739074881</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.35370747831229</v>
+        <v>82.49337970554883</v>
       </c>
       <c r="D10" t="n">
-        <v>3.927377782759776</v>
+        <v>3.674564264787356</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.52229972538039</v>
+        <v>81.23192100658865</v>
       </c>
       <c r="D11" t="n">
-        <v>4.030192947840433</v>
+        <v>3.658830832825001</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.94737740821361</v>
+        <v>79.51762851130616</v>
       </c>
       <c r="D12" t="n">
-        <v>3.49458694049409</v>
+        <v>3.353585286876193</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.21299939652324</v>
+        <v>78.64867267959674</v>
       </c>
       <c r="D13" t="n">
-        <v>3.894296966393493</v>
+        <v>3.808051276878623</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.17112867239122</v>
+        <v>78.15407111303851</v>
       </c>
       <c r="D14" t="n">
-        <v>3.635455230868342</v>
+        <v>3.695051057287276</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.34531574993866</v>
+        <v>77.35534685782883</v>
       </c>
       <c r="D15" t="n">
-        <v>4.219759669414834</v>
+        <v>3.956928186623096</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01910953911191</v>
+        <v>76.14002229214931</v>
       </c>
       <c r="D16" t="n">
-        <v>3.82560767637445</v>
+        <v>3.806953608163608</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.8821695793488</v>
+        <v>74.97729410553028</v>
       </c>
       <c r="D17" t="n">
-        <v>4.197451561293352</v>
+        <v>3.809595832887618</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.75394201345419</v>
+        <v>74.4038513356374</v>
       </c>
       <c r="D18" t="n">
-        <v>3.971344095968344</v>
+        <v>3.270177040876642</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.20809977247539</v>
+        <v>73.59090728330789</v>
       </c>
       <c r="D19" t="n">
-        <v>4.049361727844215</v>
+        <v>3.488017001899457</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.25739578592716</v>
+        <v>72.1697929558577</v>
       </c>
       <c r="D20" t="n">
-        <v>4.123442170065807</v>
+        <v>3.704534574945213</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.87457583235609</v>
+        <v>70.81144213283939</v>
       </c>
       <c r="D21" t="n">
-        <v>3.984053461038801</v>
+        <v>3.617890935748262</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.94378134151492</v>
+        <v>70.10279137042305</v>
       </c>
       <c r="D22" t="n">
-        <v>4.061421905993713</v>
+        <v>3.854731745052977</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.19320375082722</v>
+        <v>68.7786351300776</v>
       </c>
       <c r="D23" t="n">
-        <v>3.87942570466596</v>
+        <v>3.467649166503483</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.39992670902996</v>
+        <v>67.74531048553629</v>
       </c>
       <c r="D24" t="n">
-        <v>3.502728418503676</v>
+        <v>3.581317665038321</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.90409380477941</v>
+        <v>67.83666970401333</v>
       </c>
       <c r="D25" t="n">
-        <v>4.234967629643942</v>
+        <v>3.893695594037062</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.83666588919488</v>
+        <v>65.78791548642583</v>
       </c>
       <c r="D26" t="n">
-        <v>3.847110827460227</v>
+        <v>4.03145719195085</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.62001120097486</v>
+        <v>65.09796654314312</v>
       </c>
       <c r="D27" t="n">
-        <v>3.923911057781851</v>
+        <v>4.01177057342522</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92065548440632</v>
+        <v>63.80177501834122</v>
       </c>
       <c r="D28" t="n">
-        <v>4.520959696132229</v>
+        <v>3.70868716682587</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02698366588664</v>
+        <v>62.42371163623787</v>
       </c>
       <c r="D29" t="n">
-        <v>3.641021956815144</v>
+        <v>3.946127282701545</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.72450648068805</v>
+        <v>61.8417314528567</v>
       </c>
       <c r="D30" t="n">
-        <v>3.651621838116685</v>
+        <v>3.747863038216204</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.85722615405852</v>
+        <v>60.69461370341389</v>
       </c>
       <c r="D31" t="n">
-        <v>3.762080539487392</v>
+        <v>3.907817908739064</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.8148068869496</v>
+        <v>60.58903289970524</v>
       </c>
       <c r="D32" t="n">
-        <v>3.685132665778616</v>
+        <v>3.461927639203965</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.66032619385527</v>
+        <v>58.96002561793003</v>
       </c>
       <c r="D33" t="n">
-        <v>3.82981165368528</v>
+        <v>4.068170891417605</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.07422075456968</v>
+        <v>58.61561237969359</v>
       </c>
       <c r="D34" t="n">
-        <v>3.789472118561048</v>
+        <v>4.172537243224379</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.8777651482979</v>
+        <v>57.20101462092713</v>
       </c>
       <c r="D35" t="n">
-        <v>4.129086324783404</v>
+        <v>4.160707393617974</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.02337423238983</v>
+        <v>55.64554034153613</v>
       </c>
       <c r="D36" t="n">
-        <v>3.764850558815836</v>
+        <v>3.235438485536966</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.06427028633409</v>
+        <v>55.65505829506529</v>
       </c>
       <c r="D37" t="n">
-        <v>3.769796213052338</v>
+        <v>3.475306188484532</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.80606847811876</v>
+        <v>53.84741650135451</v>
       </c>
       <c r="D38" t="n">
-        <v>4.132414796244249</v>
+        <v>3.373671741294149</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04774919588912</v>
+        <v>52.95035521434744</v>
       </c>
       <c r="D39" t="n">
-        <v>4.137935652943904</v>
+        <v>4.316548591528022</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.13711432745004</v>
+        <v>51.91686760631163</v>
       </c>
       <c r="D40" t="n">
-        <v>3.725469661162421</v>
+        <v>3.504939076240462</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.58348043541225</v>
+        <v>51.04370576495341</v>
       </c>
       <c r="D41" t="n">
-        <v>3.809106201411942</v>
+        <v>4.197565562053921</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.96473690966175</v>
+        <v>49.8698391114041</v>
       </c>
       <c r="D42" t="n">
-        <v>3.976336450499437</v>
+        <v>3.917574776623258</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.0564532420354</v>
+        <v>49.11333316840371</v>
       </c>
       <c r="D43" t="n">
-        <v>3.888806301051568</v>
+        <v>3.836718264056189</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.20347219066991</v>
+        <v>47.77492754900889</v>
       </c>
       <c r="D44" t="n">
-        <v>3.78375150986327</v>
+        <v>4.027477781719063</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.49516527585267</v>
+        <v>47.06343042637761</v>
       </c>
       <c r="D45" t="n">
-        <v>4.061269880061321</v>
+        <v>3.911889517707358</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.59241076119149</v>
+        <v>46.26104935520945</v>
       </c>
       <c r="D46" t="n">
-        <v>3.721819205110386</v>
+        <v>3.628915461009205</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.94077311171901</v>
+        <v>45.77742364141783</v>
       </c>
       <c r="D47" t="n">
-        <v>3.916233785487723</v>
+        <v>3.589976644927004</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.17678790519879</v>
+        <v>43.67038810366615</v>
       </c>
       <c r="D48" t="n">
-        <v>3.793671203432536</v>
+        <v>4.013180655321319</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.68761430700988</v>
+        <v>43.20194620902203</v>
       </c>
       <c r="D49" t="n">
-        <v>3.301115646066536</v>
+        <v>3.284462072923332</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.46527468110141</v>
+        <v>42.12491500826177</v>
       </c>
       <c r="D50" t="n">
-        <v>3.947230724298671</v>
+        <v>4.242233078334711</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.08126973506847</v>
+        <v>40.76865965886154</v>
       </c>
       <c r="D51" t="n">
-        <v>4.15680197034701</v>
+        <v>3.217919633939813</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.24264547168848</v>
+        <v>40.31398516969678</v>
       </c>
       <c r="D52" t="n">
-        <v>4.298833672849016</v>
+        <v>3.372597074640178</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.24169321918726</v>
+        <v>39.0996991254161</v>
       </c>
       <c r="D53" t="n">
-        <v>3.476950794665326</v>
+        <v>3.601641294692831</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.58216197643068</v>
+        <v>37.85251278543514</v>
       </c>
       <c r="D54" t="n">
-        <v>3.980528150414434</v>
+        <v>4.233688110060065</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.73584902015994</v>
+        <v>37.03466895366577</v>
       </c>
       <c r="D55" t="n">
-        <v>4.519643243805819</v>
+        <v>4.096892517614731</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.25391735153777</v>
+        <v>36.4636994821325</v>
       </c>
       <c r="D56" t="n">
-        <v>3.319952564913272</v>
+        <v>3.772416999279163</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.10561854049574</v>
+        <v>35.08758796861086</v>
       </c>
       <c r="D57" t="n">
-        <v>3.962407620687642</v>
+        <v>4.66918900196143</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.52504694876822</v>
+        <v>33.78288752262443</v>
       </c>
       <c r="D58" t="n">
-        <v>4.394513731237883</v>
+        <v>3.846723242037279</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.49021544303146</v>
+        <v>33.47683309192277</v>
       </c>
       <c r="D59" t="n">
-        <v>3.958722597790306</v>
+        <v>3.787971750895937</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.14566466152571</v>
+        <v>32.43877716670221</v>
       </c>
       <c r="D60" t="n">
-        <v>3.748691362651813</v>
+        <v>4.118432295503983</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.90149806128736</v>
+        <v>31.00475922671231</v>
       </c>
       <c r="D61" t="n">
-        <v>4.362503058111399</v>
+        <v>3.333937586620045</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.0128699895243</v>
+        <v>29.36735883307624</v>
       </c>
       <c r="D62" t="n">
-        <v>3.931211269593084</v>
+        <v>4.093793118840715</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.47812773996525</v>
+        <v>28.84446938813965</v>
       </c>
       <c r="D63" t="n">
-        <v>3.390193905095167</v>
+        <v>3.953904976797435</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.85211909334458</v>
+        <v>27.4566431042118</v>
       </c>
       <c r="D64" t="n">
-        <v>3.649078408933647</v>
+        <v>4.295588851555847</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.34574051279569</v>
+        <v>27.11702444987544</v>
       </c>
       <c r="D65" t="n">
-        <v>4.131376801962093</v>
+        <v>4.145498613060626</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.46396643093903</v>
+        <v>26.46093542635485</v>
       </c>
       <c r="D66" t="n">
-        <v>3.909044219971035</v>
+        <v>4.200611155913473</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.75653555857345</v>
+        <v>25.11221071719909</v>
       </c>
       <c r="D67" t="n">
-        <v>3.858184894081286</v>
+        <v>4.238522724888207</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.41717385307626</v>
+        <v>24.00312372225777</v>
       </c>
       <c r="D68" t="n">
-        <v>3.545317229311496</v>
+        <v>3.79997564120038</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94393860091462</v>
+        <v>23.43227359883806</v>
       </c>
       <c r="D69" t="n">
-        <v>3.836092362259241</v>
+        <v>3.946733924392095</v>
       </c>
     </row>
   </sheetData>
